--- a/w14/5a_prototype.xlsx
+++ b/w14/5a_prototype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="triangulo" sheetId="1" r:id="rId1"/>
@@ -398,11 +398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078635688"/>
-        <c:axId val="2078590776"/>
+        <c:axId val="2124169736"/>
+        <c:axId val="2129828360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078635688"/>
+        <c:axId val="2124169736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,12 +412,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078590776"/>
+        <c:crossAx val="2129828360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078590776"/>
+        <c:axId val="2129828360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078635688"/>
+        <c:crossAx val="2124169736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -534,11 +534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124163768"/>
-        <c:axId val="2124166776"/>
+        <c:axId val="2125042376"/>
+        <c:axId val="2125045336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124163768"/>
+        <c:axId val="2125042376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,12 +548,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124166776"/>
+        <c:crossAx val="2125045336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124166776"/>
+        <c:axId val="2125045336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,13 +564,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124163768"/>
+        <c:crossAx val="2125042376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -681,11 +682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078452408"/>
-        <c:axId val="2078455368"/>
+        <c:axId val="2129786184"/>
+        <c:axId val="2129789208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078452408"/>
+        <c:axId val="2129786184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,12 +696,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078455368"/>
+        <c:crossAx val="2129789208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078455368"/>
+        <c:axId val="2129789208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,13 +712,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078452408"/>
+        <c:crossAx val="2129786184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -864,11 +866,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078479752"/>
-        <c:axId val="2078482776"/>
+        <c:axId val="2129813656"/>
+        <c:axId val="2129816680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078479752"/>
+        <c:axId val="2129813656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,12 +880,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078482776"/>
+        <c:crossAx val="2129816680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078482776"/>
+        <c:axId val="2129816680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,13 +896,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078479752"/>
+        <c:crossAx val="2129813656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1035,11 +1038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124203960"/>
-        <c:axId val="2078450520"/>
+        <c:axId val="2125029624"/>
+        <c:axId val="2078479912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124203960"/>
+        <c:axId val="2125029624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,12 +1052,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078450520"/>
+        <c:crossAx val="2078479912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078450520"/>
+        <c:axId val="2078479912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,13 +1068,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124203960"/>
+        <c:crossAx val="2125029624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1266,11 +1270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078514664"/>
-        <c:axId val="2078517624"/>
+        <c:axId val="2125063480"/>
+        <c:axId val="2125066440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078514664"/>
+        <c:axId val="2125063480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,12 +1284,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078517624"/>
+        <c:crossAx val="2125066440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078517624"/>
+        <c:axId val="2125066440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078514664"/>
+        <c:crossAx val="2125063480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1353,15 +1357,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>372534</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>55031</xdr:rowOff>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1384,7 +1388,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1202267" y="3877732"/>
+          <a:off x="1236134" y="3327398"/>
           <a:ext cx="8039100" cy="1435099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1980,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3238,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/w14/5a_prototype.xlsx
+++ b/w14/5a_prototype.xlsx
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +248,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -284,7 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -297,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -398,11 +405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124169736"/>
-        <c:axId val="2129828360"/>
+        <c:axId val="2062335464"/>
+        <c:axId val="2062380408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124169736"/>
+        <c:axId val="2062335464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,12 +419,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129828360"/>
+        <c:crossAx val="2062380408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129828360"/>
+        <c:axId val="2062380408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,14 +435,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124169736"/>
+        <c:crossAx val="2062335464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -534,11 +540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125042376"/>
-        <c:axId val="2125045336"/>
+        <c:axId val="2105569896"/>
+        <c:axId val="2105566440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125042376"/>
+        <c:axId val="2105569896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,12 +554,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125045336"/>
+        <c:crossAx val="2105566440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125045336"/>
+        <c:axId val="2105566440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125042376"/>
+        <c:crossAx val="2105569896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -682,11 +688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129786184"/>
-        <c:axId val="2129789208"/>
+        <c:axId val="2063462552"/>
+        <c:axId val="2063465576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129786184"/>
+        <c:axId val="2063462552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,12 +702,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129789208"/>
+        <c:crossAx val="2063465576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129789208"/>
+        <c:axId val="2063465576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,7 +718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129786184"/>
+        <c:crossAx val="2063462552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -866,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129813656"/>
-        <c:axId val="2129816680"/>
+        <c:axId val="2063490024"/>
+        <c:axId val="2063493048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129813656"/>
+        <c:axId val="2063490024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,12 +886,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129816680"/>
+        <c:crossAx val="2063493048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129816680"/>
+        <c:axId val="2063493048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129813656"/>
+        <c:crossAx val="2063490024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1038,11 +1044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125029624"/>
-        <c:axId val="2078479912"/>
+        <c:axId val="2107191592"/>
+        <c:axId val="2107220536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125029624"/>
+        <c:axId val="2107191592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,12 +1058,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078479912"/>
+        <c:crossAx val="2107220536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2078479912"/>
+        <c:axId val="2107220536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125029624"/>
+        <c:crossAx val="2107191592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1270,11 +1276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125063480"/>
-        <c:axId val="2125066440"/>
+        <c:axId val="2107703016"/>
+        <c:axId val="2107705800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125063480"/>
+        <c:axId val="2107703016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,12 +1290,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125066440"/>
+        <c:crossAx val="2107705800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125066440"/>
+        <c:axId val="2107705800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125063480"/>
+        <c:crossAx val="2107703016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1554,15 +1560,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>389467</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>16934</xdr:rowOff>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>520699</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4233</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>93134</xdr:rowOff>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1615,16 +1621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>186269</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>651937</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>262467</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914403</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>16931</xdr:rowOff>
+      <xdr:rowOff>194732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1647,8 +1653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1016002" y="4608267"/>
-          <a:ext cx="3674532" cy="471731"/>
+          <a:off x="2184404" y="4349119"/>
+          <a:ext cx="7078132" cy="908680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3242,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3260,10 +3266,10 @@
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3271,10 +3277,10 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="D2" s="1"/>
@@ -3282,10 +3288,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="12">
         <v>10</v>
       </c>
       <c r="D3" s="1"/>
@@ -3293,10 +3299,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>9</v>
       </c>
     </row>
@@ -3354,7 +3360,7 @@
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -3391,7 +3397,7 @@
         <v>0.11000000000000001</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:C19" si="0">1+(B10^2/$C$4)</f>
+        <f t="shared" ref="C10:C17" si="0">1+(B10^2/$C$4)</f>
         <v>1.0013444444444444</v>
       </c>
       <c r="D10" s="2">
@@ -3420,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B19" si="6">B10+$C$5</f>
+        <f t="shared" ref="B11:B18" si="6">B10+$C$5</f>
         <v>0.22000000000000003</v>
       </c>
       <c r="C11" s="2">
@@ -3655,7 +3661,7 @@
         <v>0.99</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C10:C19" si="7">1+(B18^2/$C$4)</f>
         <v>1.1089</v>
       </c>
       <c r="D18" s="2">
@@ -3683,12 +3689,12 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="6"/>
+      <c r="B19" s="12">
+        <f t="shared" ref="B11:B19" si="8">B18+$C$5</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.1344444444444446</v>
       </c>
       <c r="D19" s="2">
@@ -3894,653 +3900,653 @@
         <v>5.5000000000000007E-2</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" ref="C37:C56" si="7">1+(B37^2/$C$31)</f>
+        <f t="shared" ref="C37:C56" si="9">1+(B37^2/$C$31)</f>
         <v>1.0001592105263157</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ref="D37:D56" si="8">C37^((($C$31+1)/2)*-1)</f>
+        <f t="shared" ref="D37:D56" si="10">C37^((($C$31+1)/2)*-1)</f>
         <v>0.99840928798899786</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ref="E37:E56" si="9">EXP(GAMMALN(($C$31+1)/2))/( (($C$31*PI())^0.5)*EXP(GAMMALN(($C$31/2))) )</f>
+        <f t="shared" ref="E37:E56" si="11">EXP(GAMMALN(($C$31+1)/2))/( (($C$31*PI())^0.5)*EXP(GAMMALN(($C$31/2))) )</f>
         <v>0.39372980729260415</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ref="F37:F56" si="10">D37*E37</f>
+        <f t="shared" ref="F37:F56" si="12">D37*E37</f>
         <v>0.39310349655905424</v>
       </c>
       <c r="G37">
         <v>4</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H56" si="11">F37*G37*$E$32</f>
+        <f t="shared" ref="H37:H56" si="13">F37*G37*$E$32</f>
         <v>2.8827589747663977E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <f t="shared" ref="A38:A56" si="12">A37+1</f>
+        <f t="shared" ref="A38:A56" si="14">A37+1</f>
         <v>2</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B56" si="13">B37+$C$32</f>
+        <f t="shared" ref="B38:B56" si="15">B37+$C$32</f>
         <v>0.11000000000000001</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0006368421052632</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.99365382847526007</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.39372980729260415</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.39123113040112251</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4345141448041158E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="15"/>
+        <v>0.16500000000000004</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="9"/>
+        <v>1.001432894736842</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="10"/>
+        <v>0.98578333369635696</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F39" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="B39">
+        <v>0.38813228200852751</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="13"/>
-        <v>0.16500000000000004</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="7"/>
-        <v>1.001432894736842</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="8"/>
-        <v>0.98578333369635696</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="10"/>
-        <v>0.38813228200852751</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="11"/>
         <v>2.8463034013958683E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="15"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0025473684210526</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="10"/>
+        <v>0.97487960878613289</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F40" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="13"/>
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0025473684210526</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="8"/>
-        <v>0.97487960878613289</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="10"/>
         <v>0.38383916050085343</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.407410255169796E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="15"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0039802631578947</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="10"/>
+        <v>0.96105501050351194</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F41" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="B41">
+        <v>0.37839600408313939</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="13"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0039802631578947</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="8"/>
-        <v>0.96105501050351194</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="10"/>
-        <v>0.37839600408313939</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="11"/>
         <v>2.7749040299430223E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="15"/>
+        <v>0.33</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0057315789473684</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="10"/>
+        <v>0.94445035140675748</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F42" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="13"/>
-        <v>0.33</v>
-      </c>
-      <c r="C42" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0057315789473684</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="8"/>
-        <v>0.94445035140675748</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="10"/>
         <v>0.3718582548568149</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.3634802678083213E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="15"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0078013157894736</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="10"/>
+        <v>0.92523230848544891</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F43" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="B43">
+        <v>0.3642915385208671</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="13"/>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="C43" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0078013157894736</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="8"/>
-        <v>0.92523230848544891</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="10"/>
-        <v>0.3642915385208671</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="11"/>
         <v>2.6714712824863589E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="15"/>
+        <v>0.44</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0101894736842105</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="10"/>
+        <v>0.90359040809087077</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F44" s="3">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="13"/>
-        <v>0.44</v>
-      </c>
-      <c r="C44" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0101894736842105</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="8"/>
-        <v>0.90359040809087077</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="10"/>
         <v>0.35577047724906408</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.304491749913235E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="15"/>
+        <v>0.495</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0128960526315789</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.87973366909638917</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F45" s="3">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="B45">
+        <v>0.34637736800213692</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="13"/>
-        <v>0.495</v>
-      </c>
-      <c r="C45" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0128960526315789</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="8"/>
-        <v>0.87973366909638917</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="10"/>
-        <v>0.34637736800213692</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="11"/>
         <v>2.5401006986823373E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="15"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0159210526315789</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="10"/>
+        <v>0.85388699325913409</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F46" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="13"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C46" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0159210526315789</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="8"/>
-        <v>0.85388699325913409</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="10"/>
         <v>0.33620076130558002</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2327361247871267E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="15"/>
+        <v>0.60500000000000009</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0192644736842105</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="10"/>
+        <v>0.82628739557711184</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F47" s="3">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="B47">
+        <v>0.325333977028884</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="13"/>
-        <v>0.60500000000000009</v>
-      </c>
-      <c r="C47" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0192644736842105</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="8"/>
-        <v>0.82628739557711184</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="10"/>
-        <v>0.325333977028884</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="11"/>
         <v>2.3857824982118161E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="15"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0229263157894737</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="10"/>
+        <v>0.79718016802520053</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F48" s="3">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="13"/>
-        <v>0.66000000000000014</v>
-      </c>
-      <c r="C48" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0229263157894737</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="8"/>
-        <v>0.79718016802520053</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="10"/>
         <v>0.31387359393404801</v>
       </c>
       <c r="G48">
         <v>2</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1508698444248427E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="15"/>
+        <v>0.71500000000000019</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0269065789473684</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="10"/>
+        <v>0.76681506753725848</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F49" s="3">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="B49">
+        <v>0.30191794877051004</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="13"/>
-        <v>0.71500000000000019</v>
-      </c>
-      <c r="C49" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0269065789473684</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="8"/>
-        <v>0.76681506753725848</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="10"/>
-        <v>0.30191794877051004</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="11"/>
         <v>2.2140649576504069E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="15"/>
+        <v>0.77000000000000024</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0312052631578947</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="10"/>
+        <v>0.7354426137372535</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F50" s="3">
         <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="13"/>
-        <v>0.77000000000000024</v>
-      </c>
-      <c r="C50" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0312052631578947</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="8"/>
-        <v>0.7354426137372535</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="10"/>
         <v>0.28956567858153792</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
       <c r="H50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.061740821465639E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="15"/>
+        <v>0.82500000000000029</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0358223684210526</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="10"/>
+        <v>0.70331057407786912</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F51" s="3">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="B51">
+        <v>0.27691433679853023</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="13"/>
-        <v>0.82500000000000029</v>
-      </c>
-      <c r="C51" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0358223684210526</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="8"/>
-        <v>0.70331057407786912</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="10"/>
-        <v>0.27691433679853023</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="11"/>
         <v>2.0307051365225551E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="15"/>
+        <v>0.88000000000000034</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0407578947368421</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="10"/>
+        <v>0.67066070417253909</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F52" s="3">
         <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="13"/>
-        <v>0.88000000000000034</v>
-      </c>
-      <c r="C52" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0407578947368421</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="8"/>
-        <v>0.67066070417253909</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" si="10"/>
         <v>0.26405910981257602</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.6821673597944549E-3</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="15"/>
+        <v>0.93500000000000039</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0460118421052631</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="10"/>
+        <v>0.6377257997154846</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F53" s="3">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="B53">
+        <v>0.25109165622749963</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="13"/>
-        <v>0.93500000000000039</v>
-      </c>
-      <c r="C53" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0460118421052631</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="8"/>
-        <v>0.6377257997154846</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="10"/>
-        <v>0.25109165622749963</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="11"/>
         <v>1.8413388123349972E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="15"/>
+        <v>0.99000000000000044</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0515842105263158</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="10"/>
+        <v>0.60472710401033358</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F54" s="3">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="13"/>
-        <v>0.99000000000000044</v>
-      </c>
-      <c r="C54" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0515842105263158</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="8"/>
-        <v>0.60472710401033358</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="10"/>
         <v>0.23809908612660322</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.7302998246421171E-3</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="15"/>
+        <v>1.0450000000000004</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0574749999999999</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="10"/>
+        <v>0.57187210230712349</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F55" s="3">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="B55">
+        <v>0.22516309263740014</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="13"/>
-        <v>1.0450000000000004</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0574749999999999</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="8"/>
-        <v>0.57187210230712349</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" si="10"/>
-        <v>0.22516309263740014</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="11"/>
         <v>1.6511960126742678E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="15"/>
+        <v>1.1000000000000003</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0636842105263158</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="10"/>
+        <v>0.53935272138887624</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39372980729260415</v>
+      </c>
+      <c r="F56" s="3">
         <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="13"/>
-        <v>1.1000000000000003</v>
-      </c>
-      <c r="C56" s="2">
-        <f t="shared" si="7"/>
-        <v>1.0636842105263158</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="8"/>
-        <v>0.53935272138887624</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="9"/>
-        <v>0.39372980729260415</v>
-      </c>
-      <c r="F56" s="3">
-        <f t="shared" si="10"/>
         <v>0.21235924305518386</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.8932527893450375E-3</v>
       </c>
     </row>
